--- a/biology/Médecine/François_Chicou_Duvert/François_Chicou_Duvert.xlsx
+++ b/biology/Médecine/François_Chicou_Duvert/François_Chicou_Duvert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Chicou_Duvert</t>
+          <t>François_Chicou_Duvert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Chicou Duvert, né le 30 janvier 1789 à Saint-Vallier-sur-Marne (France) et mort le 5 août 1841 à Saint-Charles-sur-Richelieu, est un patriote franco-canadien. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Chicou_Duvert</t>
+          <t>François_Chicou_Duvert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médecin, il est un des chefs des patriotes et réunit chez lui dans sa prairie de Saint-Charles l'Assemblée de Louis-Joseph Papineau dont il est un des deux vice-présidents[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecin, il est un des chefs des patriotes et réunit chez lui dans sa prairie de Saint-Charles l'Assemblée de Louis-Joseph Papineau dont il est un des deux vice-présidents. 
 Capturé le 31 décembre 1837, il est libéré à l'amnistie le 8 juillet 1838 et finit sa vie à Saint-Charles. 
-Jules Verne le mentionne dans le premier chapitre de la deuxième partie de son roman Famille-Sans-Nom[2].
-Sa demeure, la plus ancienne de Saint-Charles, habitation de bois typiquement québécoise, est classée[3],[4].
+Jules Verne le mentionne dans le premier chapitre de la deuxième partie de son roman Famille-Sans-Nom.
+Sa demeure, la plus ancienne de Saint-Charles, habitation de bois typiquement québécoise, est classée,.
 </t>
         </is>
       </c>
